--- a/transformacion/staging/depurado/fact_proyectos_estrategias_depurado.xlsx
+++ b/transformacion/staging/depurado/fact_proyectos_estrategias_depurado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>Hoja</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>BENEFICIARIOS</t>
+  </si>
+  <si>
+    <t>Unnamed: 4</t>
+  </si>
+  <si>
+    <t>Unnamed: 5</t>
   </si>
   <si>
     <t>Nombre_Proyecto</t>
@@ -464,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,158 +492,218 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
